--- a/sales_predictions.xlsx
+++ b/sales_predictions.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sales Predictions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,20 +16,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +44,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -138,6 +125,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,12 +441,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,149 +455,161 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Actual Sales</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Sales</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" t="n">
+        <v/>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44927</v>
+      <c r="A2" s="1" t="n">
+        <v>44928</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44928</v>
+      <c r="A3" s="1" t="n">
+        <v>44929</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44929</v>
+      <c r="A4" s="1" t="n">
+        <v>44930</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44930</v>
+      <c r="A5" s="1" t="n">
+        <v>44931</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44931</v>
+      <c r="A6" s="1" t="n">
+        <v>44932</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44932</v>
+      <c r="A7" s="1" t="n">
+        <v>44933</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44933</v>
+      <c r="A8" s="1" t="n">
+        <v>44934</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v>23.48701667785645</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44934</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" s="1" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
       <c r="C9" t="n">
-        <v>26.52061653137207</v>
+        <v>22.57742691040039</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" s="1" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
       <c r="C10" t="n">
-        <v>24.79193687438965</v>
+        <v>22.50127983093262</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44936</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" s="1" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
       <c r="C11" t="n">
-        <v>24.42132186889648</v>
+        <v>22.49488639831543</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" s="1" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
       <c r="C12" t="n">
-        <v>24.3411750793457</v>
+        <v>22.49435043334961</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44938</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" s="1" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
       <c r="C13" t="n">
-        <v>24.32381057739258</v>
+        <v>22.49430465698242</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" s="1" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
       <c r="C14" t="n">
-        <v>24.32004928588867</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44940</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>24.31923294067383</v>
+        <v>22.49430084228516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>